--- a/Data/sm1129200@gmail.com-households-data.xlsx
+++ b/Data/sm1129200@gmail.com-households-data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,3191 +438,3616 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Ovens and stoves</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Heating Air conditioning</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Dough mixers</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Ventilation</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Refrigeration</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>45620.90422453704</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>3.115565254240666</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.3820941150018108</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.8141120951366508</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.142012464626307</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.8621261457682163</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.07851189447314341</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>6.394421969246794</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>45621.90422453704</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>1.89226882865775</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2.390416216070051</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.5478184493750182</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1389007602200251</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1.078319339725965</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.06310332169436092</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>6.11082691574317</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>45622.90422453704</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.5234142372437911</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.404054969587916</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.7682600559143354</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.6325278097846765</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.8335050613304609</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.01665843090656985</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>4.178420564767749</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>45623.90422453704</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2.416947442170961</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1.251372895171087</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.3555189925514708</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.4151007530843548</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.2776606812794332</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.01780360863086295</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>4.734404372888168</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>45624.90422453704</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.2089970155353246</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2.432150704060283</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.4147537874832838</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.08149371117961068</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.4207770154749982</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.01882404020032369</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>3.576996273933825</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>45625.90422453704</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>1.060708394540103</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.7334700090674011</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.9236275230269054</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3801696726445211</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>1.090483075649967</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.02570506054195914</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>4.214163735470857</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>45626.90422453704</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>1.458424826464545</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.3537938824391677</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.5133894226779727</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.9974865379807855</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.173895653620616</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.04997899512257399</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>3.546969318305661</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>45627.90422453704</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>2.7097368636264</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1.495399387937917</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.5339420266140563</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.137777803751212</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2734767011296239</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.04755566951394187</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>5.197888452573152</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>45628.90422453704</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.4062229799166273</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.7420902758232264</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1447964502113132</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3302129159061166</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.7567130378297978</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.03489158925942233</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>2.414927248946503</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>45629.90422453704</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>3.038205607068651</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1.06407963172316</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.5002443976701655</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.7402960837987745</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.05232370909364267</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.05878005490158017</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>5.453929484255974</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>45630.90422453704</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>1.747234268098434</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>3.206572577665999</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>1.142579415122518</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.5745534552151579</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.7608797171373405</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.02005771397132551</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>7.451877147210775</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>45631.90422453704</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.8295231451211507</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>3.034803095959353</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1.074739958292606</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.8313463039451052</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.3345378536991127</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.0655585755659736</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>6.170508932583302</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>45632.90422453704</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>1.285318202062843</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.7455389836780486</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.4818798111000345</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.7097414578691267</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.3042654777584615</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.04763699295497097</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>3.574380925423485</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>45633.90422453704</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>1.268791238494656</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1.069985323311267</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.5175330783813537</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.07884021973023336</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.5912786124911023</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.07541011994797892</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>3.601838592356591</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>45634.90422453704</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>2.23382435133168</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>2.309911078105753</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.4582034020687089</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3572026494723257</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1.012563049187248</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0.03544623914673446</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>6.407150769312451</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>45635.90422453704</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>2.334241098422708</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>2.418801154038968</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.2339619923534441</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2447632906500234</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.6261270242779027</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.0550050013058717</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>5.912899561048917</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>45636.90422453704</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>3.034417099696133</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>2.733610640810744</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.3937836646052772</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.07975669119363284</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.08477840224813521</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.04301576503516789</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>6.369362263589091</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>45637.90422453704</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>1.411007029098901</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.4890976534664463</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.1768773565888492</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.5683446091095675</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.3941820499958723</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0.07630864503987665</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>3.115817343299513</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>45638.90422453704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>0.4974370511323123</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1.435973326012998</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>1.008210273004408</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.106124021493517</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.6287612610661674</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.04098978222261624</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>4.717495714932019</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>45639.90422453704</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>0.09322390259071672</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>0.6291774839304478</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.6325405194990671</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.072172372824058</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.2516440432160139</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>0.0726221234057557</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>2.751380445466059</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>45640.90422453704</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>0.8881467939325138</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>3.127001695431934</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>1.121907511293937</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.4168685172720515</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.1429124466018629</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.07047276112733857</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>5.767309725659638</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>45641.90422453704</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>3.137827429882814</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>1.229154458244986</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>0.6925425174103959</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.3459948680349556</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.2530775350990785</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.05918074364554231</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>5.717777552317771</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>45642.90422453704</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>1.351684323286005</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>1.495587574590067</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.1880470102681424</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.8898358544063192</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.1628233696336995</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.03426915715304598</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>4.122247289337279</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>45643.90422453704</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>2.691728215191093</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>2.6507520152013</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>0.3301201879269755</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.2095189137820105</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>1.117494951707788</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>0.01515484205836974</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>7.014769125867536</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
         <v>45644.90422453704</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>2.686687247284962</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>0.07988088686859728</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>1.052339815868989</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1.036780715402887</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.3732636281521191</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>0.02394011896425042</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>5.252892412541804</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>45645.90422453704</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>1.473552493521106</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>2.798430351694659</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>1.057872320925003</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.7004851892260883</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.4104712459225934</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>0.02993702099024072</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>6.470748622279691</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>45646.90422453704</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>2.562758689805243</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>3.319627650616808</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>0.9050541934381396</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.9097860967145367</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>0.3390677094630835</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>0.0232239503126628</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>8.059518290350473</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>45647.90422453704</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>0.152200981745037</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>1.959324222004235</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.8488554678270268</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.3390811665029361</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.2124977522742703</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>0.04288250890601129</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>3.554842099259516</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>45648.90422453704</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>2.148978499554048</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>1.959813088933913</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>0.2110970791151148</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.1333531075098426</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.7345012311579404</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>0.039128781665519</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>5.226871787936378</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
         <v>45649.90422453704</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>2.141931748862892</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>0.6587408491709981</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>0.2028419971058716</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>0.8577665647388275</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>1.136356331336399</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>0.04718354091707297</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>5.044821032132061</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
         <v>45650.90422453704</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>1.727824043401467</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>0.06885117414205198</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>0.787806953390545</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.3197791227174596</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>0.8462722989534531</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>0.07647593876841401</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>3.827009531373391</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
         <v>45651.90422453704</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>2.095921567969336</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>2.275037774211616</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>0.2092848827928727</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.3383485069350265</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.6114765092131966</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>0.05343334090554581</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>5.583502582027594</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>45652.90422453704</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>1.895713205553974</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>2.315915181085648</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>1.002162870098612</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.04843805604607621</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>1.091550605997485</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>0.02521047276782684</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>6.378990391549622</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
         <v>45653.90422453704</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>1.259956206874483</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>3.020976241331935</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>0.3758214465239222</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.9367770573526009</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>1.101086550215121</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>0.01725871412442785</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>6.71187621642249</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>45654.90422453704</v>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>1.283145297399468</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>1.892384794919669</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>0.7176150574980668</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.510247111348926</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.2572653902051651</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>0.05554711390316974</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>4.716204765274465</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
         <v>45655.90422453704</v>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>0.5923060300003968</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>2.158490053115858</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>1.14741660519434</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.5586706548998078</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>0.9692623700537133</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>0.06618511289800497</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>5.492330826162121</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
         <v>45656.90422453704</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>1.796725501010269</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>0.3660969954150854</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>0.3575337834413662</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.5509724157169384</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.05966056070833801</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>0.04937288196715908</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>3.180362138259156</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>45657.90422453704</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>2.394277943771982</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>0.5017815925235867</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>0.46808895425691</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.1014864075829427</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.1765228668724845</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>0.05526047417675754</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>3.697418239184663</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>45658.90422453704</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>1.513720714920376</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>0.5415150542151037</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>0.3168442651149042</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.9506082338448685</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>1.016374707537289</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>0.02563821669933209</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>4.364701192331872</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
         <v>45659.90422453704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>0.2033116294110011</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>0.7308998364024837</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>0.6899859865985962</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.736729515542181</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0.7696719820590688</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>0.01602250959656215</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>3.146621459609893</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
         <v>45660.90422453704</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>2.92627269385836</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>2.59153263003882</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>0.429174654364005</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.6596922331628041</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.05720500918880497</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>0.02751227073458549</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>6.691389491347381</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>45661.90422453704</v>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>2.874944859507458</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>2.575152366293195</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>0.5224912749801274</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.7377676031131915</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0.7401169833900786</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>0.02576191885374609</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>7.476235006137796</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
         <v>45662.90422453704</v>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>0.9989499055711077</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>2.933189008999028</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>0.06340564019779131</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>0.7855019703588433</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>0.4483964926951569</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>0.05370647692607504</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>5.283149494748002</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
         <v>45663.90422453704</v>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>1.015506291763257</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>2.960320450690888</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>0.9195999134030735</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.8621998134614712</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.1372019780379342</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0.05642226033314256</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>5.951250707689766</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
         <v>45664.90422453704</v>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>0.6887872668147632</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>0.6196194173272034</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>0.5360170120819104</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.8907853290115477</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.2974974320323076</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>0.01507075982515462</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>3.047777217092887</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
         <v>45665.90422453704</v>
       </c>
-      <c r="B47" t="n">
+      <c r="C47" t="n">
         <v>0.6028660301491438</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>2.319776264472245</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>0.2616118372375652</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.2455434426297455</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.3888635518561113</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>0.02859018857301372</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>3.847251314917825</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
         <v>45666.90422453704</v>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" t="n">
         <v>3.155459759225778</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>1.439692231298044</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>0.5934069965138192</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>1.042479982609593</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>0.4174659594917818</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>0.06667462371098209</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>6.715179552849999</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
         <v>45667.90422453704</v>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" t="n">
         <v>2.433351062258536</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>1.625968053641851</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>0.9646946203358874</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>0.4426175924035544</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>0.1209271958781738</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>0.01235646425409581</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>5.599914988772099</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
         <v>45668.90422453704</v>
       </c>
-      <c r="B50" t="n">
+      <c r="C50" t="n">
         <v>2.129532496195083</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>0.2731149157305649</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>0.182338557082057</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>0.4541275906380583</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.8605215739347623</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>0.05448378792310135</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>3.954118921503627</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
         <v>45669.90422453704</v>
       </c>
-      <c r="B51" t="n">
+      <c r="C51" t="n">
         <v>3.320411596740444</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>0.759112861277131</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>0.07362265302058099</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>0.226574417191868</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.5194858958441089</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>0.05685274420082514</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>4.956060168274958</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
         <v>45670.90422453704</v>
       </c>
-      <c r="B52" t="n">
+      <c r="C52" t="n">
         <v>1.814297378592909</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>1.75308064270415</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>0.1730260264355953</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>0.1140408357932489</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>0.3629027361545567</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>0.02129159896652225</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>4.238639218646981</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
         <v>45671.90422453704</v>
       </c>
-      <c r="B53" t="n">
+      <c r="C53" t="n">
         <v>1.64043140091041</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>0.1218741382732601</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>0.9625925579162503</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0.2141002744810347</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>0.7340866996834909</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>0.02337534863775318</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>3.696460419902199</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
         <v>45672.90422453704</v>
       </c>
-      <c r="B54" t="n">
+      <c r="C54" t="n">
         <v>2.774635294666722</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>0.4390105063089887</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>0.3565512169200603</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>0.3209156244724123</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>0.2509019105492711</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>0.06322244094349999</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>4.205236993860954</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
         <v>45673.90422453704</v>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>0.5096223930783383</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>1.641688132937478</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>0.7269715039819801</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>0.5358228529567597</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>0.8325759849625892</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>0.04171445907110106</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>4.288395326988247</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
         <v>45674.90422453704</v>
       </c>
-      <c r="B56" t="n">
+      <c r="C56" t="n">
         <v>1.512476519416739</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>0.9915968821043484</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>0.2651948185074386</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.6307139362372041</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>0.8465513636359473</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>0.0387169235142495</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>4.285250443415928</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
         <v>45675.90422453704</v>
       </c>
-      <c r="B57" t="n">
+      <c r="C57" t="n">
         <v>0.63672545557355</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>2.059095098456373</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>0.6260770032469651</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.9313865419018981</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>0.4894314880367528</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>0.05008123483673919</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>4.792796822052278</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
         <v>45676.90422453704</v>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>3.008580630702523</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>0.7325637685678741</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>0.34053200315765</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.6367367869691134</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>0.08915677969747325</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>0.03122400688003038</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>4.838793975974664</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
         <v>45677.90422453704</v>
       </c>
-      <c r="B59" t="n">
+      <c r="C59" t="n">
         <v>0.1369454271831064</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>2.929954942689241</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>0.5031589256452814</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>0.1610708668980755</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>1.038221412620113</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>0.06078110850851234</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>4.830132683544329</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
         <v>45678.90422453704</v>
       </c>
-      <c r="B60" t="n">
+      <c r="C60" t="n">
         <v>1.197550828896284</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>0.7906950105300874</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>0.6705898181547003</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>0.5709974396524506</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>0.9955520028131023</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>0.07504954839419734</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>4.300434648440822</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
         <v>45679.90422453704</v>
       </c>
-      <c r="B61" t="n">
+      <c r="C61" t="n">
         <v>1.652273345229323</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>0.6376410718381851</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>0.8087990247726018</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>0.5881912714744251</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>0.0470809067629093</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>0.0606073072093218</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>3.794592927286766</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
         <v>45680.90422453704</v>
       </c>
-      <c r="B62" t="n">
+      <c r="C62" t="n">
         <v>2.483276177718753</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>0.5178685104328085</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>0.867400700924734</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.8589690151761707</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.4387334130090881</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>0.04484741585288832</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>5.211095233114443</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
         <v>45681.90422453704</v>
       </c>
-      <c r="B63" t="n">
+      <c r="C63" t="n">
         <v>2.755432273247971</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>1.127867752571921</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>1.008218338395951</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.9447956264769632</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>1.002827701142847</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>0.04901112845771617</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>6.888152820293369</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
         <v>45682.90422453704</v>
       </c>
-      <c r="B64" t="n">
+      <c r="C64" t="n">
         <v>2.948636339820608</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>2.013077264071518</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>1.063435763801778</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>0.2898390749936136</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.6927783733688084</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>0.04391010149757452</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>7.0516769175539</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
         <v>45683.90422453704</v>
       </c>
-      <c r="B65" t="n">
+      <c r="C65" t="n">
         <v>1.195785620275608</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>2.365663716261698</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>0.901145023236933</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.6233852204062041</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.7044531912396798</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>0.02523946975972681</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>5.81567224117985</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
         <v>45684.90422453704</v>
       </c>
-      <c r="B66" t="n">
+      <c r="C66" t="n">
         <v>2.159129516683608</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>1.517144060382112</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>0.159316460571877</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>0.9606995618471748</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.7942387612806187</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>0.02960031940063786</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>5.620128680166028</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
         <v>45685.90422453704</v>
       </c>
-      <c r="B67" t="n">
+      <c r="C67" t="n">
         <v>1.955986584043497</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>1.962534883519725</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>0.6300196922472301</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>0.7030885834785496</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.3157236573766767</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>0.05994460377170764</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>5.627298004437387</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
         <v>45686.90422453704</v>
       </c>
-      <c r="B68" t="n">
+      <c r="C68" t="n">
         <v>0.4829172730376948</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>0.6978116488559643</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>0.3116815477204683</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>0.6963831271530881</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.7782079002423351</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>0.06471873566411002</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>3.03172023267366</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
         <v>45687.90422453704</v>
       </c>
-      <c r="B69" t="n">
+      <c r="C69" t="n">
         <v>1.004489724867807</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>0.877219690506859</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>0.08234877206605987</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>1.093478799212972</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.84864166244179</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>0.0724652908583214</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>3.97864393995381</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
         <v>45688.90422453704</v>
       </c>
-      <c r="B70" t="n">
+      <c r="C70" t="n">
         <v>0.08905992293192327</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>0.9192167075407427</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>0.05756754572320415</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>0.3057319520909103</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>0.4574687713905931</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>0.02821106690795264</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>1.857255966585326</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
         <v>45689.90422453704</v>
       </c>
-      <c r="B71" t="n">
+      <c r="C71" t="n">
         <v>2.363907860372161</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>1.431768413554868</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>0.6678191399696166</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>0.8788759018604714</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.2021628457560966</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>0.05427038438593509</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>5.598804545899148</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
         <v>45690.90422453704</v>
       </c>
-      <c r="B72" t="n">
+      <c r="C72" t="n">
         <v>0.997293769424187</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>2.734872794218792</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>0.3705611591167697</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>1.016669287040507</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.686001509773886</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>0.06411517916753254</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>5.869513698741675</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
         <v>45691.90422453704</v>
       </c>
-      <c r="B73" t="n">
+      <c r="C73" t="n">
         <v>2.238091837909407</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>0.215995517103547</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>0.5024075661469889</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>0.07126028425850496</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.8640466273311236</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>0.02632898964560586</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>3.918130822395177</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
         <v>45692.90422453704</v>
       </c>
-      <c r="B74" t="n">
+      <c r="C74" t="n">
         <v>1.930459091128277</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>2.964450241113807</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>1.063605697139758</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>0.2971476488955151</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.8324623156480953</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>0.07538044123486938</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>7.16350543516032</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
         <v>45693.90422453704</v>
       </c>
-      <c r="B75" t="n">
+      <c r="C75" t="n">
         <v>2.370133459482183</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>1.300402332069256</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>0.3859844018561874</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>0.09076159068148693</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.9127612291204038</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>0.0206227698118993</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>5.080665783021416</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
         <v>45694.90422453704</v>
       </c>
-      <c r="B76" t="n">
+      <c r="C76" t="n">
         <v>0.1788005683688211</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>2.066446483395136</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>0.3412495349203271</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>0.19957589707245</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.2835973223244963</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>0.01800945624518047</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>3.087679262326411</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
         <v>45695.90422453704</v>
       </c>
-      <c r="B77" t="n">
+      <c r="C77" t="n">
         <v>2.656623675664863</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>2.146508846824542</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>0.1974558562878992</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>0.2762529829327999</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.9165397836570478</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>0.02188948187803062</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>6.215270627245182</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
         <v>45696.90422453704</v>
       </c>
-      <c r="B78" t="n">
+      <c r="C78" t="n">
         <v>1.779420875849002</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>1.490456748615572</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>1.111373833995407</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>0.7071034663513406</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.3401649798186783</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>0.0155577771209247</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>5.444077681750923</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
         <v>45697.90422453704</v>
       </c>
-      <c r="B79" t="n">
+      <c r="C79" t="n">
         <v>0.9610850624813896</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>2.423406219933149</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>0.3885063482301184</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>0.9548057196024582</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.2382365474696243</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>0.03570943278206795</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>5.001749330498806</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
         <v>45698.90422453704</v>
       </c>
-      <c r="B80" t="n">
+      <c r="C80" t="n">
         <v>2.362984824111395</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>2.055602257724289</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>0.1482005132809103</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>0.7715452843484679</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.9271206872558999</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>0.02865007917635829</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>6.29410364589732</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
         <v>45699.90422453704</v>
       </c>
-      <c r="B81" t="n">
+      <c r="C81" t="n">
         <v>2.154487591905196</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>1.476418713724753</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>0.2162619426707831</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>0.8567879706266299</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.7937845975335643</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>0.06215893324772197</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>5.55989974970865</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
         <v>45700.90422453704</v>
       </c>
-      <c r="B82" t="n">
+      <c r="C82" t="n">
         <v>1.619179132439454</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>2.177999943662543</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>0.5582069221155088</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>0.7135827160034935</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>0.03261636487946352</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>0.05521027303405208</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>5.156795352134514</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
         <v>45701.90422453704</v>
       </c>
-      <c r="B83" t="n">
+      <c r="C83" t="n">
         <v>2.693226072137871</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>1.392826784537102</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>1.054128155812077</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>0.09462885000265099</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>1.107497125611461</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>0.04812984086680147</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>6.390436828967964</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
         <v>45702.90422453704</v>
       </c>
-      <c r="B84" t="n">
+      <c r="C84" t="n">
         <v>1.520192222539538</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>2.690199157634259</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>0.4328888600870768</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>0.4597092312115147</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>0.5333997223770469</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>0.01411073151126005</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>5.650499925360696</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
         <v>45703.90422453704</v>
       </c>
-      <c r="B85" t="n">
+      <c r="C85" t="n">
         <v>0.1850777550118631</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>2.292863868504671</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>0.60151354686228</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>0.7473005697173596</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.8891420753699262</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>0.04850687523857618</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>4.764404690704676</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
         <v>45704.90422453704</v>
       </c>
-      <c r="B86" t="n">
+      <c r="C86" t="n">
         <v>0.7016041218686411</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>1.773542856095349</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>0.3535033146396128</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>0.2603623507492257</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.9977673650389192</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>0.06388262573378765</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>4.150662634125536</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
         <v>45705.90422453704</v>
       </c>
-      <c r="B87" t="n">
+      <c r="C87" t="n">
         <v>2.747462145407915</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>0.3573629719994427</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>0.6666890547977815</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>0.09981549327847522</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>0.6805300048933922</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>0.0214886970028376</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>4.573348367379844</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
         <v>45706.90422453704</v>
       </c>
-      <c r="B88" t="n">
+      <c r="C88" t="n">
         <v>0.2743933687256519</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>2.804416783093544</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>0.6058880974584255</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>0.7585997653265396</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.9164468633052834</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>0.05510539781511212</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>5.414850275724556</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
         <v>45707.90422453704</v>
       </c>
-      <c r="B89" t="n">
+      <c r="C89" t="n">
         <v>0.9552359964400934</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>1.661780320605263</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>0.6167523694104355</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>0.1183672530049238</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.7244637103664706</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>0.01784559643633015</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>4.094445246263517</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
         <v>45708.90422453704</v>
       </c>
-      <c r="B90" t="n">
+      <c r="C90" t="n">
         <v>2.916630663223954</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>2.686609815470661</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>0.5165339498703425</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>0.8931762643980803</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.1625932043366015</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>0.03908222614952871</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>7.214626123449167</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
         <v>45709.90422453704</v>
       </c>
-      <c r="B91" t="n">
+      <c r="C91" t="n">
         <v>0.9479167260776318</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>2.65239208989567</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>0.05291220664077664</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>0.8499048959633542</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.4214709950330614</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>0.07286236935769401</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>4.997459282968188</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
         <v>45710.90422453704</v>
       </c>
-      <c r="B92" t="n">
+      <c r="C92" t="n">
         <v>1.309357575027449</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>0.1599764873120001</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>0.1818545007772741</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>0.7204129993363725</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>1.121037449451</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>0.03256558705150632</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>3.525204598955602</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
         <v>45711.90422453704</v>
       </c>
-      <c r="B93" t="n">
+      <c r="C93" t="n">
         <v>0.7652016882834238</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>1.837929542588092</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>0.6662827947551561</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>1.011862215649416</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.6575139313141224</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>0.02087693446632</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>4.959667107056529</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
         <v>45712.90422453704</v>
       </c>
-      <c r="B94" t="n">
+      <c r="C94" t="n">
         <v>1.83319084259277</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>2.970959782919825</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>0.1407185470440774</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>0.5889686000469746</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.2036471660105186</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>0.03890773718757632</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>5.77639267580174</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
         <v>45713.90422453704</v>
       </c>
-      <c r="B95" t="n">
+      <c r="C95" t="n">
         <v>1.781848574876115</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>3.175293953483087</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>0.5146679219349385</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>0.9266576153902303</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.2478096317387435</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>0.05352149920569946</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>6.699799196628814</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
         <v>45714.90422453704</v>
       </c>
-      <c r="B96" t="n">
+      <c r="C96" t="n">
         <v>2.346943687720098</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>0.9322156639574961</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>0.9952934596313845</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>0.07109469754945642</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.2792800088017262</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>0.05878439822154352</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>4.683611915881704</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
         <v>45715.90422453704</v>
       </c>
-      <c r="B97" t="n">
+      <c r="C97" t="n">
         <v>0.2657735240317216</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>0.2060267754975751</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>1.136720095190764</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>0.09064794763248854</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>0.543346795057872</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>0.03479663361699119</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>2.277311771027412</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
         <v>45716.90422453704</v>
       </c>
-      <c r="B98" t="n">
+      <c r="C98" t="n">
         <v>2.770423961318942</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>1.48118603850793</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>0.4747932949602618</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>0.09697583875547802</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>0.3114441102513583</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>0.05041310499910023</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>5.18523634879307</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
         <v>45717.90422453704</v>
       </c>
-      <c r="B99" t="n">
+      <c r="C99" t="n">
         <v>0.4290804470383147</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>1.878500446198783</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>0.4542179466883699</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>0.7996051819452568</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>0.4976164062842519</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>0.07112546435170926</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>4.130145892506686</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
         <v>45718.90422453704</v>
       </c>
-      <c r="B100" t="n">
+      <c r="C100" t="n">
         <v>2.059262215936362</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>1.009966182098547</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>0.5079471309597666</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>0.8715240432345752</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>0.5434069246181477</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>0.05364839752803366</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>5.045754894375431</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
         <v>45719.90422453704</v>
       </c>
-      <c r="B101" t="n">
+      <c r="C101" t="n">
         <v>1.834792757036776</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>0.1932163199972925</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>0.7267542234418045</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>1.065811905992624</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.4827842670116542</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>0.02188198513293808</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>4.32524145861309</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
         <v>45720.90422453704</v>
       </c>
-      <c r="B102" t="n">
+      <c r="C102" t="n">
         <v>2.361065912238274</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>0.4798301043174539</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>0.9859672988693994</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>0.8387224268020811</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>0.9285149194066367</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>0.01356703350163406</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>5.607667695135479</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
         <v>45721.90422453704</v>
       </c>
-      <c r="B103" t="n">
+      <c r="C103" t="n">
         <v>2.35157087325223</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>0.3961453050068794</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>0.5800267795612026</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>0.9034966906789629</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1.072780815114332</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>0.0247012253409034</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>5.32872168895451</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="n">
         <v>45722.90422453704</v>
       </c>
-      <c r="B104" t="n">
+      <c r="C104" t="n">
         <v>2.918613859313577</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>0.06349898017208847</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>0.1101901549694892</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>0.8731452244799138</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>0.7652011894220234</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>0.0251171235366174</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>4.755766531893709</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="n">
         <v>45723.90422453704</v>
       </c>
-      <c r="B105" t="n">
+      <c r="C105" t="n">
         <v>2.506682832930588</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>1.729349343509303</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>1.080192984642437</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>1.138249908964341</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>1.10564728714142</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>0.07803645950634187</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>7.638158816694433</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
         <v>45724.90422453704</v>
       </c>
-      <c r="B106" t="n">
+      <c r="C106" t="n">
         <v>3.00470909136333</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>0.1183821068671571</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>1.055736326711823</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>0.8879748183022711</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.2064765115521473</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>0.02756406796490582</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>5.300842922761635</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
         <v>45725.90422453704</v>
       </c>
-      <c r="B107" t="n">
+      <c r="C107" t="n">
         <v>2.858963590853917</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>0.343719549250892</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>0.5530153013962524</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>1.053063553325299</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>0.5401822633566004</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>0.04630328481308332</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>5.395247542996044</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
         <v>45726.90422453704</v>
       </c>
-      <c r="B108" t="n">
+      <c r="C108" t="n">
         <v>1.177091140470342</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>2.793468933823576</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>1.045462151482327</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>0.4414251521467841</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>0.5522216151978946</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>0.01636474480727185</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>6.026033737928195</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
         <v>45727.90422453704</v>
       </c>
-      <c r="B109" t="n">
+      <c r="C109" t="n">
         <v>2.36746252681553</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>0.09768889400602067</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>0.1703490898121847</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>1.083668022819833</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>0.8948405387378849</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>0.07712585321188793</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>4.691134925403341</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
         <v>45728.90422453704</v>
       </c>
-      <c r="B110" t="n">
+      <c r="C110" t="n">
         <v>2.439732288420992</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>2.484493281635747</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>1.019962728078837</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>0.4997193584969316</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>0.8454028002077725</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>0.06392024711378719</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>7.353230703954067</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
         <v>45729.90422453704</v>
       </c>
-      <c r="B111" t="n">
+      <c r="C111" t="n">
         <v>3.325544835396077</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>2.989971410611832</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>0.7293569208387533</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>0.5882135720893322</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.9750853335427687</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>0.02383020761496203</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>8.632002280093724</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
         <v>45730.90422453704</v>
       </c>
-      <c r="B112" t="n">
+      <c r="C112" t="n">
         <v>2.277039892228747</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>1.950140777457685</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>0.5624168611872522</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>1.115200413198183</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>0.9045941860254665</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>0.06851746618677618</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>6.877909596284109</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
         <v>45731.90422453704</v>
       </c>
-      <c r="B113" t="n">
+      <c r="C113" t="n">
         <v>0.3134117023182081</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>2.130164098509881</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>0.3516074264005719</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>0.5835480199918635</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>0.8288306574575631</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>0.04767076204639459</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>4.255232666724482</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
         <v>45732.90422453704</v>
       </c>
-      <c r="B114" t="n">
+      <c r="C114" t="n">
         <v>1.095432170047759</v>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>0.5856674475225794</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>0.8556387964491663</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>0.5381750479997754</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.4217280505407115</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>0.06478047563225621</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>3.561421988192247</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
         <v>45733.90422453704</v>
       </c>
-      <c r="B115" t="n">
+      <c r="C115" t="n">
         <v>2.250359836073615</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>1.666390181455523</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>0.5709153663733071</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>0.09801456630234218</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>1.000824615184283</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>0.05843837953605222</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>5.644942944925122</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
         <v>45734.90422453704</v>
       </c>
-      <c r="B116" t="n">
+      <c r="C116" t="n">
         <v>1.093654223502477</v>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>2.937850863844356</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>0.3258007488341926</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>0.5216837271719599</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>0.6149006990755357</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>0.07855156210085001</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>5.572441824529371</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
         <v>45735.90422453704</v>
       </c>
-      <c r="B117" t="n">
+      <c r="C117" t="n">
         <v>1.438435654391199</v>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>0.1457514918014318</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>0.2642492055937826</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>0.7131415647296265</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>0.4115653058157253</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>0.01239027435121382</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>2.985533496682979</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
         <v>45736.90422453704</v>
       </c>
-      <c r="B118" t="n">
+      <c r="C118" t="n">
         <v>1.458736631330765</v>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>3.326902819805785</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>0.2045266245303806</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>0.3331838359444096</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>0.7193058501870661</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>0.07328170022980633</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>6.115937462028213</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="n">
         <v>45737.90422453704</v>
       </c>
-      <c r="B119" t="n">
+      <c r="C119" t="n">
         <v>1.866671922266528</v>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>3.082833669481195</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>1.001535867021539</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>0.8286811438026843</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>1.02938600776159</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
         <v>0.0591260433697377</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>7.868234653703273</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="n">
         <v>45738.90422453704</v>
       </c>
-      <c r="B120" t="n">
+      <c r="C120" t="n">
         <v>0.9042395623414989</v>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>0.4041526464128036</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>0.6227999977109645</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>0.227700110546721</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>0.7652189138878478</v>
       </c>
-      <c r="G120" t="n">
+      <c r="H120" t="n">
         <v>0.01839458677908325</v>
       </c>
-      <c r="H120" t="n">
+      <c r="I120" t="n">
         <v>2.942505817678919</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="n">
         <v>45739.90422453704</v>
       </c>
-      <c r="B121" t="n">
+      <c r="C121" t="n">
         <v>0.1146764689926795</v>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>1.745397449233587</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>0.6629937837193079</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>0.3853531673142027</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>0.9712428450719709</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>0.03919009743582619</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>3.918853811767574</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="n">
         <v>45740.90422453704</v>
       </c>
-      <c r="B122" t="n">
+      <c r="C122" t="n">
         <v>2.589613517093358</v>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>2.213021338562839</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>0.2360389738688975</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>0.906881010298814</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>1.005427042076176</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>0.01599879066081951</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>6.966980672560903</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-03-24 21:42:05</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2.417961645392774</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3.21740540326809</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.061282158356107</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.4839151357971141</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.5006018430152327</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.03317896720896187</v>
+      </c>
+      <c r="I123" t="n">
+        <v>7.71434515303828</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-03-25 21:42:05</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>3.316863823340334</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.2486338154636794</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.1360298112570651</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1259572907601888</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.7881713400401161</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.02936888489382342</v>
+      </c>
+      <c r="I124" t="n">
+        <v>4.645024965755207</v>
       </c>
     </row>
   </sheetData>
